--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -1960,16 +1960,16 @@
     <t>category</t>
   </si>
   <si>
-    <t>iam_menu-90</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation</t>
-  </si>
-  <si>
-    <t>协作</t>
-  </si>
-  <si>
-    <t>XZ</t>
+    <t>iam_menu-121</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SZ</t>
   </si>
   <si>
     <t>organization</t>
@@ -1987,6 +1987,54 @@
     <t>api</t>
   </si>
   <si>
+    <t>iam_menu-122</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>/iam/project-setting/info</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>iam_menu-235</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.client</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>KHD</t>
+  </si>
+  <si>
+    <t>airplay</t>
+  </si>
+  <si>
+    <t>/iam/pro-client</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
+  </si>
+  <si>
     <t>iam_menu-91</t>
   </si>
   <si>
@@ -1999,9 +2047,6 @@
     <t>TDCY</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
     <t>IAM</t>
   </si>
   <si>
@@ -2009,63 +2054,6 @@
   </si>
   <si>
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>iam_menu-121</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>iam_menu-122</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-235</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>airplay</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2231,9 +2219,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2242,13 +2229,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2256,23 +2242,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2284,8 +2256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,32 +2278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2344,19 +2293,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2375,10 +2323,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2458,25 +2446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,37 +2494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,31 +2512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,31 +2530,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,37 +2626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2749,22 +2737,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,9 +2768,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,6 +2792,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2823,170 +2816,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3701,10 +3689,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3847,7 +3835,7 @@
         <v>81</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>82</v>
@@ -3892,22 +3880,22 @@
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-90</v>
+        <v>iam_menu-121</v>
       </c>
       <c r="L9" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="5">
-        <v>50</v>
+      <c r="M9" t="s">
+        <v>89</v>
       </c>
       <c r="N9" t="s">
         <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
@@ -3916,7 +3904,7 @@
         <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T9" t="s">
         <v>80</v>
@@ -3928,93 +3916,100 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="10" s="8" customFormat="1" spans="5:24">
+      <c r="E10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="8">
+        <v>70</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10">
-        <v>100</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S10" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="5:24">
       <c r="E11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11" t="str">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
       <c r="L11" t="s">
         <v>88</v>
       </c>
-      <c r="M11" t="s">
-        <v>100</v>
+      <c r="M11" s="5">
+        <v>50</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
@@ -4023,7 +4018,7 @@
         <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
         <v>80</v>
@@ -4032,63 +4027,6 @@
         <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="5:24">
-      <c r="E12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="8">
-        <v>70</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4101,10 +4039,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:O8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4149,64 +4087,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>114</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>115</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>116</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>117</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4228,120 +4166,101 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="I10" t="s">
         <v>130</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G11" t="str">
-        <f>菜单SAAS版!E8</f>
-        <v>iam_menu-90</v>
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-91</v>
       </c>
       <c r="H11" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G12" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-91</v>
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-121</v>
       </c>
       <c r="H12" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G13" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-121</v>
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-122</v>
       </c>
       <c r="H13" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G14" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-122</v>
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-235</v>
       </c>
       <c r="H14" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-235</v>
-      </c>
-      <c r="H15" t="str">
-        <f>E8</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <r>
       <rPr>
@@ -2054,6 +2054,66 @@
   </si>
   <si>
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>notification_setting</t>
+  </si>
+  <si>
+    <t>/notify/project-notify</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.saga-instance</t>
+  </si>
+  <si>
+    <t>事务管理</t>
+  </si>
+  <si>
+    <t>SWGL</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>/asgard/project-saga-instance</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2144,7 +2204,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2178,6 +2238,18 @@
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2219,6 +2291,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2227,24 +2315,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2256,9 +2352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2272,7 +2367,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,14 +2382,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2301,23 +2395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2333,24 +2413,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2362,11 +2427,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2446,157 +2518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,7 +2542,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,7 +2632,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2733,50 +2805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2801,17 +2829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2830,156 +2858,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2993,6 +3065,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3000,44 +3077,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3050,7 +3127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3453,8 +3530,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -3470,79 +3547,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3550,56 +3627,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3609,30 +3686,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3640,7 +3717,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3648,25 +3725,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3689,10 +3766,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4030,6 +4107,170 @@
         <v>82</v>
       </c>
     </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24">
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="11">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24">
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4039,10 +4280,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4087,64 +4328,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4166,33 +4407,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4203,15 +4444,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4222,15 +4463,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4241,15 +4482,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4260,7 +4501,64 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H15" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H16" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="146">
   <si>
     <r>
       <rPr>
@@ -2002,9 +2002,6 @@
     <t>menu</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
@@ -2068,9 +2065,6 @@
     <t>TZ</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>notification_setting</t>
   </si>
   <si>
@@ -2080,18 +2074,6 @@
     <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
     <t>iam_menu-12</t>
   </si>
   <si>
@@ -2102,9 +2084,6 @@
   </si>
   <si>
     <t>SWGL</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>ballot</t>
@@ -2204,7 +2183,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2238,18 +2217,6 @@
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2291,19 +2258,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2315,45 +2288,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2367,37 +2310,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2412,7 +2332,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2420,8 +2340,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2434,9 +2361,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2518,7 +2485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,55 +2533,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,67 +2569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,37 +2593,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2805,17 +2772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,8 +2784,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2844,26 +2805,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2883,175 +2840,185 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3065,11 +3032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3077,44 +3042,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3127,7 +3092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3530,8 +3495,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -3547,79 +3512,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="17"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3627,56 +3592,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3686,30 +3651,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3717,7 +3682,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3725,25 +3690,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3766,10 +3731,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3911,8 +3876,8 @@
       <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c r="M8">
-        <v>100</v>
+      <c r="M8" s="5">
+        <v>50</v>
       </c>
       <c r="N8" t="s">
         <v>82</v>
@@ -3962,17 +3927,17 @@
       <c r="L9" t="s">
         <v>88</v>
       </c>
-      <c r="M9" t="s">
-        <v>89</v>
+      <c r="M9" s="5">
+        <v>10</v>
       </c>
       <c r="N9" t="s">
         <v>82</v>
       </c>
       <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
         <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
@@ -3981,7 +3946,7 @@
         <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
         <v>80</v>
@@ -3995,19 +3960,19 @@
     </row>
     <row r="10" s="8" customFormat="1" spans="5:24">
       <c r="E10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -4019,17 +3984,17 @@
       <c r="L10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="8">
-        <v>70</v>
+      <c r="M10" s="9">
+        <v>90</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>82</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>80</v>
@@ -4038,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>80</v>
@@ -4052,19 +4017,19 @@
     </row>
     <row r="11" spans="5:24">
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -4077,16 +4042,16 @@
         <v>88</v>
       </c>
       <c r="M11" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
       </c>
       <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s">
         <v>104</v>
-      </c>
-      <c r="P11" t="s">
-        <v>105</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
@@ -4095,7 +4060,7 @@
         <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T11" t="s">
         <v>80</v>
@@ -4109,19 +4074,19 @@
     </row>
     <row r="12" spans="5:24">
       <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>108</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
         <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>110</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4133,17 +4098,17 @@
       <c r="L12" t="s">
         <v>88</v>
       </c>
-      <c r="M12" t="s">
-        <v>111</v>
+      <c r="M12" s="5">
+        <v>70</v>
       </c>
       <c r="N12" t="s">
         <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q12" t="s">
         <v>80</v>
@@ -4152,7 +4117,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T12" t="s">
         <v>80</v>
@@ -4166,108 +4131,58 @@
     </row>
     <row r="13" spans="5:24">
       <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="K13" s="5" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" t="s">
         <v>80</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
+      <c r="R13" t="s">
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="5:24">
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s">
-        <v>126</v>
-      </c>
-      <c r="T14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="X13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4280,10 +4195,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4328,64 +4243,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="N7" t="s">
         <v>130</v>
       </c>
-      <c r="H7" t="s">
+      <c r="O7" t="s">
         <v>131</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4407,33 +4322,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4444,15 +4359,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4463,15 +4378,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4482,15 +4397,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4501,15 +4416,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4520,18 +4435,18 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G16" t="str">
-        <f>菜单SAAS版!E14</f>
+        <f>菜单SAAS版!E13</f>
         <v>iam_menu-12</v>
       </c>
       <c r="H16" t="str">
@@ -4539,26 +4454,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H17" t="str">
-        <f>E8</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52284424-A702-CE48-8E86-1BFFB12C0925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="16380" yWindow="1660" windowWidth="20500" windowHeight="15820" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +46,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -47,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -77,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -95,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -113,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -162,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -180,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -201,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -221,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -241,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -261,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -281,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -310,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -339,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -357,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -431,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -440,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -458,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -476,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -494,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -523,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -541,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -560,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -578,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -597,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -615,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -644,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -662,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -685,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -703,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -721,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -739,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -786,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -844,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -862,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -885,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -903,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -922,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -941,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -960,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -980,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -999,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1024,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1033,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1053,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1082,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1102,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1120,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1150,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1168,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1186,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1218,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1236,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1254,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1314,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1356,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1388,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1406,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1425,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1448,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1466,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1484,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1503,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1523,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1571,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1607,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1626,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1644,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1662,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1681,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1699,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1717,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1735,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1754,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1813,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1842,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1861,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2002,9 +2207,6 @@
     <t>menu</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>/iam/project-setting/info</t>
   </si>
   <si>
@@ -2023,9 +2225,6 @@
     <t>KHD</t>
   </si>
   <si>
-    <t>airplay</t>
-  </si>
-  <si>
     <t>/iam/pro-client</t>
   </si>
   <si>
@@ -2044,9 +2243,6 @@
     <t>TDCY</t>
   </si>
   <si>
-    <t>IAM</t>
-  </si>
-  <si>
     <t>/iam/team-member</t>
   </si>
   <si>
@@ -2065,9 +2261,6 @@
     <t>TZ</t>
   </si>
   <si>
-    <t>notification_setting</t>
-  </si>
-  <si>
     <t>/notify/project-notify</t>
   </si>
   <si>
@@ -2077,113 +2270,123 @@
     <t>iam_menu-12</t>
   </si>
   <si>
+    <t>事务管理</t>
+  </si>
+  <si>
+    <t>SWGL</t>
+  </si>
+  <si>
+    <t>/asgard/project-saga-instance</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>N_AGILE_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>TENANT</t>
+  </si>
+  <si>
+    <t>标识敏捷管理菜单</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>choerodon.code.project.operation.saga-instance</t>
-  </si>
-  <si>
-    <t>事务管理</t>
-  </si>
-  <si>
-    <t>SWGL</t>
-  </si>
-  <si>
-    <t>ballot</t>
-  </si>
-  <si>
-    <t>/asgard/project-saga-instance</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
-  </si>
-  <si>
-    <t>N_AGILE_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>TENANT</t>
-  </si>
-  <si>
-    <t>标识敏捷管理菜单</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings-o</t>
+  </si>
+  <si>
+    <t>laptop_windows</t>
+  </si>
+  <si>
+    <t>supervisor_account-o</t>
+  </si>
+  <si>
+    <t>notifications_active-o</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>developer_board</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2194,36 +2397,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2231,187 +2436,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2431,28 +2491,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2483,194 +2560,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2771,254 +2662,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3042,20 +2691,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3089,9 +2726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3099,59 +2733,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3224,6 +2827,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3481,275 +3087,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="34" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="58.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="28.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="135.222222222222" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="135.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,7 +3366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3851,7 +3454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -3901,7 +3504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -3934,10 +3537,10 @@
         <v>82</v>
       </c>
       <c r="O9" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" t="s">
         <v>89</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
@@ -3946,7 +3549,7 @@
         <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
         <v>80</v>
@@ -3958,21 +3561,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="5:24">
+    <row r="10" spans="1:25" s="8" customFormat="1">
       <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -3991,10 +3594,10 @@
         <v>82</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>80</v>
@@ -4003,7 +3606,7 @@
         <v>80</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>80</v>
@@ -4015,21 +3618,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
         <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" t="s">
-        <v>102</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -4048,10 +3651,10 @@
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
@@ -4060,7 +3663,7 @@
         <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T11" t="s">
         <v>80</v>
@@ -4072,21 +3675,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
         <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4104,11 +3707,11 @@
       <c r="N12" t="s">
         <v>82</v>
       </c>
-      <c r="O12" t="s">
-        <v>110</v>
+      <c r="O12" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
         <v>80</v>
@@ -4117,7 +3720,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T12" t="s">
         <v>80</v>
@@ -4129,21 +3732,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -4161,11 +3764,11 @@
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" t="s">
-        <v>117</v>
+      <c r="O13" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
         <v>80</v>
@@ -4173,8 +3776,8 @@
       <c r="R13" t="s">
         <v>80</v>
       </c>
-      <c r="S13" t="s">
-        <v>119</v>
+      <c r="S13" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
@@ -4187,30 +3790,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="9.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4224,7 +3826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4243,64 +3845,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="N7" t="s">
         <v>123</v>
       </c>
-      <c r="H7" t="s">
+      <c r="O7" t="s">
         <v>124</v>
       </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15">
+    </row>
+    <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4314,7 +3916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4322,33 +3924,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" t="s">
-        <v>144</v>
-      </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4359,15 +3961,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4378,15 +3980,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4397,15 +3999,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4416,15 +4018,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4435,15 +4037,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E13</f>
@@ -4454,11 +4056,11 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_platform/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52284424-A702-CE48-8E86-1BFFB12C0925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="1660" windowWidth="20500" windowHeight="15820" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,30 +17,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +38,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -66,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -79,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +68,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -99,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -109,7 +86,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -119,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,7 +104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -139,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -171,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -181,7 +153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -191,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -201,7 +171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -211,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -221,7 +189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -234,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -245,7 +211,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -256,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -267,7 +231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -278,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -290,7 +252,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -300,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -312,7 +272,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -322,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -334,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -344,7 +301,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -354,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -366,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -376,7 +330,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -386,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -396,7 +348,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -406,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -416,7 +366,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -426,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -436,7 +384,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -446,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -456,7 +402,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -486,7 +431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -496,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -506,7 +449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -516,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -526,7 +467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -536,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -546,7 +485,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -556,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -568,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -578,7 +514,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -588,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -598,7 +532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -608,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -618,7 +550,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -629,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -639,7 +569,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -649,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -659,7 +587,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -670,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -680,7 +606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -690,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -702,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -712,7 +635,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -722,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -732,7 +653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -742,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -757,7 +676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -767,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -777,7 +694,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -787,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -797,7 +712,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -807,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -817,7 +730,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -827,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -837,7 +748,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -847,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -859,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -869,7 +777,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -879,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -890,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -901,7 +806,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -912,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -923,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -933,7 +835,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -943,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -953,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -963,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -978,7 +876,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -988,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -998,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1008,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -1018,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1029,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1039,7 +931,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1050,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1060,7 +950,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1071,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1081,7 +969,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1093,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1103,7 +989,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1114,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1124,7 +1008,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1141,7 +1024,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1151,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1163,7 +1044,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1173,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1185,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1195,7 +1073,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1205,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1215,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1227,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1237,7 +1111,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1247,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1260,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1270,7 +1141,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1280,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1290,7 +1159,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1300,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1310,7 +1177,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1320,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1335,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1345,7 +1209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1355,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1365,7 +1227,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1375,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1385,7 +1245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1395,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1405,7 +1263,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1415,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1431,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1441,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1451,7 +1305,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1461,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1477,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1487,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1497,7 +1347,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1507,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1522,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1532,7 +1379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1542,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1552,7 +1397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1562,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1572,7 +1415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1583,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1593,7 +1434,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1608,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1618,7 +1457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1628,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1638,7 +1475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1648,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1658,7 +1493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1669,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1679,7 +1512,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1691,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1702,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1712,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1724,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1734,7 +1562,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1744,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1754,7 +1580,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1764,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1774,7 +1598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1784,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1795,7 +1617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1805,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1815,7 +1635,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1825,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1835,7 +1653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1845,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1855,7 +1671,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1866,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1876,7 +1690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1886,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1896,7 +1708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1906,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1916,7 +1726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1926,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1936,7 +1744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1947,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1959,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1970,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1980,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1992,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -2002,7 +1804,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2012,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -2024,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -2034,7 +1833,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2044,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -2054,7 +1851,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2065,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2114,57 +1909,15 @@
     <t>name:en_US</t>
   </si>
   <si>
-    <t>h_quick_index</t>
-  </si>
-  <si>
     <t>#fd_level</t>
   </si>
   <si>
     <t>parent_id</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>h_custom_flag</t>
-  </si>
-  <si>
     <t>#h_tenant_id</t>
   </si>
   <si>
-    <t>h_level_path</t>
-  </si>
-  <si>
-    <t>h_virtual_flag</t>
-  </si>
-  <si>
-    <t>h_controller_type</t>
-  </si>
-  <si>
-    <t>h_permission_type</t>
-  </si>
-  <si>
-    <t>h_description</t>
-  </si>
-  <si>
-    <t>h_enabled_flag</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>iam_menu-121</t>
   </si>
   <si>
@@ -2174,156 +1927,96 @@
     <t>设置</t>
   </si>
   <si>
-    <t>SZ</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>root</t>
+    <t>iam_menu-235</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.client</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.saga-instance</t>
+  </si>
+  <si>
+    <t>事务实例</t>
+  </si>
+  <si>
+    <t>iam_menu-124</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.developer</t>
+  </si>
+  <si>
+    <t>开发者</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>N_AGILE_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-122</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-235</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>iam_menu-91</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>团队成员</t>
-  </si>
-  <si>
-    <t>TDCY</t>
-  </si>
-  <si>
-    <t>/iam/team-member</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>/notify/project-notify</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>事务管理</t>
-  </si>
-  <si>
-    <t>SWGL</t>
-  </si>
-  <si>
-    <t>/asgard/project-saga-instance</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
-  </si>
-  <si>
-    <t>N_AGILE_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
     <t>TENANT</t>
   </si>
   <si>
@@ -2355,38 +2048,19 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.saga-instance</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings-o</t>
-  </si>
-  <si>
-    <t>laptop_windows</t>
-  </si>
-  <si>
-    <t>supervisor_account-o</t>
-  </si>
-  <si>
-    <t>notifications_active-o</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>developer_board</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2397,38 +2071,42 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2436,42 +2114,187 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2491,45 +2314,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2560,8 +2366,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2662,12 +2654,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2679,11 +2913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2691,32 +2923,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2726,35 +2970,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2827,9 +3105,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3087,272 +3362,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
       <c r="A1" s="12"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="39" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:3">
       <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="18" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
-      <c r="C10" s="27" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
-      <c r="C11" s="21" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="38">
-      <c r="C15" s="29" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="32" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="32" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="32" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="32" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="33" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="22" t="s">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
-      <c r="C27" s="34" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" customWidth="1"/>
-    <col min="19" max="19" width="135.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
+    <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
+    <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
+    <col min="10" max="10" width="27.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3377,7 +3652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3402,417 +3677,160 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="5:11">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s">
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="5:11">
+      <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S7" t="s">
+      <c r="G9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T7" t="s">
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-124</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="U7" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="V7" t="s">
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="W7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="5">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="5">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>141</v>
-      </c>
-      <c r="P9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="8" customFormat="1">
-      <c r="E10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="16" customHeight="1" spans="5:11">
+      <c r="E12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="9">
-        <v>90</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="5">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="5">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>108</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="5">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="P13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V13" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" t="s">
-        <v>82</v>
+      <c r="K12" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="15.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="14.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="14.1407407407407" customWidth="1"/>
+    <col min="10" max="10" width="9.42222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3826,7 +3844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3845,78 +3863,81 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3924,143 +3945,124 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G11" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-91</v>
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-121</v>
       </c>
       <c r="H11" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="I11" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G12" t="str">
-        <f>菜单SAAS版!E8</f>
-        <v>iam_menu-121</v>
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-235</v>
       </c>
       <c r="H12" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="I12" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G13" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-122</v>
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H13" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G14" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-235</v>
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H14" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
-        <v>iam_menu-16</v>
+        <v>iam_menu-124</v>
       </c>
       <c r="H15" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H16" t="str">
-        <f>E8</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1912,9 +1912,6 @@
     <t>#fd_level</t>
   </si>
   <si>
-    <t>parent_id</t>
-  </si>
-  <si>
     <t>#h_tenant_id</t>
   </si>
   <si>
@@ -1967,6 +1964,24 @@
   </si>
   <si>
     <t>开发者</t>
+  </si>
+  <si>
+    <t>iam_menu-91</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.team-member</t>
+  </si>
+  <si>
+    <t>团队成员</t>
+  </si>
+  <si>
+    <t>iam_menu-122</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>基础信息</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2142,14 +2157,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,13 +2201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2178,23 +2209,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,33 +2246,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2243,14 +2259,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2269,9 +2277,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,13 +2302,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,7 +2383,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,31 +2461,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,67 +2539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,61 +2557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,6 +2670,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2666,21 +2701,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2718,8 +2738,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2727,176 +2762,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3612,10 +3627,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3624,7 +3639,6 @@
     <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
     <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
     <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
-    <col min="10" max="10" width="27.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3652,7 +3666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3680,130 +3694,148 @@
       <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="3" t="s">
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="5:10">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="5:11">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="5:10">
+      <c r="E9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="5:11">
-      <c r="E9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="9" t="s">
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="9" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-124</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11">
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" s="5" customFormat="1" ht="16" customHeight="1" spans="5:10">
+      <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="5" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="16" customHeight="1" spans="5:11">
-      <c r="E12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="5" t="s">
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
         <v>64</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3815,10 +3847,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3863,75 +3895,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="10:10">
@@ -3945,33 +3977,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E8</f>
@@ -3982,15 +4014,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4001,15 +4033,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4020,15 +4052,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4039,15 +4071,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4058,7 +4090,45 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-91</v>
+      </c>
+      <c r="H16" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-122</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1963,7 +1963,7 @@
     <t>choerodon.code.project.setting.developer</t>
   </si>
   <si>
-    <t>开发者</t>
+    <t>开发</t>
   </si>
   <si>
     <t>iam_menu-91</t>
@@ -1981,7 +1981,7 @@
     <t>choerodon.code.project.setting.general-setting</t>
   </si>
   <si>
-    <t>基础信息</t>
+    <t>项目基础信息</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2070,10 +2070,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2159,7 +2159,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2171,23 +2171,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2195,13 +2194,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2215,16 +2207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2246,6 +2238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2259,6 +2258,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,6 +2284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -2286,22 +2301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2383,13 +2383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2407,31 +2443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,49 +2455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,7 +2473,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2515,55 +2557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,26 +2670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2701,6 +2681,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2744,6 +2733,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2761,157 +2759,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3630,7 +3630,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1981,7 +1981,7 @@
     <t>choerodon.code.project.setting.general-setting</t>
   </si>
   <si>
-    <t>项目基础信息</t>
+    <t>基础信息</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2070,9 +2070,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -2164,6 +2164,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2171,15 +2178,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2193,30 +2201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2245,14 +2237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2277,13 +2261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2301,7 +2278,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2383,7 +2383,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,13 +2515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,157 +2557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,6 +2670,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2681,30 +2690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2728,7 +2713,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,7 +2722,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2757,6 +2742,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2773,10 +2773,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2785,133 +2785,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3629,8 +3629,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <r>
       <rPr>
@@ -1924,6 +1924,9 @@
     <t>设置</t>
   </si>
   <si>
+    <t>Settings</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -1939,6 +1942,9 @@
     <t>客户端</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>iam_menu-16</t>
   </si>
   <si>
@@ -1948,6 +1954,9 @@
     <t>通知</t>
   </si>
   <si>
+    <t>Notifications</t>
+  </si>
+  <si>
     <t>iam_menu-12</t>
   </si>
   <si>
@@ -1957,6 +1966,9 @@
     <t>事务实例</t>
   </si>
   <si>
+    <t>Transaction Instance</t>
+  </si>
+  <si>
     <t>iam_menu-124</t>
   </si>
   <si>
@@ -1966,6 +1978,9 @@
     <t>开发</t>
   </si>
   <si>
+    <t>Development</t>
+  </si>
+  <si>
     <t>iam_menu-91</t>
   </si>
   <si>
@@ -1975,6 +1990,9 @@
     <t>团队成员</t>
   </si>
   <si>
+    <t>Teammate</t>
+  </si>
+  <si>
     <t>iam_menu-122</t>
   </si>
   <si>
@@ -1982,6 +2000,9 @@
   </si>
   <si>
     <t>基础信息</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2164,7 +2185,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2177,38 +2242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2224,14 +2260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2246,7 +2275,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2254,7 +2283,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2263,14 +2292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2285,16 +2307,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2383,25 +2404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2419,19 +2422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,24 +2440,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2479,7 +2452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,7 +2470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,13 +2524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,13 +2536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,31 +2554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,6 +2701,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2690,6 +2726,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,39 +2750,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2759,6 +2771,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2773,10 +2794,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2785,133 +2806,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3629,8 +3650,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3709,90 +3730,90 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="5:10">
       <c r="E9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="5:10">
       <c r="E10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="16" customHeight="1" spans="5:10">
       <c r="E12" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -3800,42 +3821,42 @@
     </row>
     <row r="13" spans="5:10">
       <c r="E13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="5:10">
       <c r="E14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3895,75 +3916,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="10:10">
@@ -3977,33 +3998,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4014,15 +4035,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4033,15 +4054,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4052,15 +4073,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4071,15 +4092,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4090,15 +4111,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E13</f>
@@ -4109,15 +4130,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!E14</f>
@@ -4128,7 +4149,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1924,7 +1924,7 @@
     <t>设置</t>
   </si>
   <si>
-    <t>Settings</t>
+    <t>Set</t>
   </si>
   <si>
     <t>organization</t>
@@ -2091,10 +2091,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2180,13 +2180,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2198,14 +2191,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2213,30 +2213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2250,49 +2229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,6 +2252,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2314,8 +2306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2323,6 +2316,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2404,7 +2404,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,7 +2452,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,43 +2542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,79 +2572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,31 +2584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,17 +2700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2740,16 +2736,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2769,6 +2765,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2777,162 +2788,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3650,8 +3650,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-menu-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47624C1-645E-5F4E-974A-0DB711E339F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,32 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,6 +58,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -47,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,6 +91,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -77,6 +101,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,6 +111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -95,6 +121,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,6 +131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -113,6 +141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,6 +183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -162,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,6 +203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -180,6 +213,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,6 +223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -201,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,6 +247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -221,6 +258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,6 +269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -241,6 +280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -261,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -281,6 +324,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -310,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,6 +378,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -339,6 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -357,6 +408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,6 +428,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,6 +438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,6 +448,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,6 +458,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -431,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -440,6 +498,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -458,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,6 +528,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -476,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,6 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -494,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,6 +580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -523,6 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,6 +600,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -541,6 +610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,6 +620,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -560,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,6 +641,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -578,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,6 +661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -597,6 +672,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -615,6 +692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,6 +714,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -644,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,6 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -662,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,6 +759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -685,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,6 +779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -703,6 +789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,6 +799,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -721,6 +809,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,6 +819,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -739,6 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,6 +839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +849,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,6 +871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -786,6 +881,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,6 +903,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,6 +914,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +925,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,6 +935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -844,6 +945,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -862,6 +965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -885,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -903,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -922,6 +1031,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -941,6 +1052,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -960,6 +1073,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,6 +1083,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -980,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,6 +1105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -999,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,6 +1126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1024,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1033,6 +1153,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1053,6 +1175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1082,6 +1207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,6 +1217,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1102,6 +1229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1120,6 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1150,6 +1282,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1168,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,6 +1312,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1186,6 +1322,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1337,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,6 +1347,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1218,6 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,6 +1367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1236,6 +1377,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,6 +1387,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1254,6 +1397,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,6 +1407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,6 +1417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1433,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1314,6 +1463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,6 +1499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1356,6 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,6 +1534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1388,6 +1544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1406,6 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1425,6 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1448,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,6 +1620,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1466,6 +1630,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,6 +1640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1484,6 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,6 +1660,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1503,6 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1523,6 +1693,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1714,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,6 +1736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1571,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,6 +1756,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,6 +1766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,6 +1776,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1607,6 +1786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1626,6 +1807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1644,6 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,6 +1837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1662,6 +1847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,6 +1857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1681,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1699,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,6 +1898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1717,6 +1908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,6 +1918,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1735,6 +1928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,6 +1938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1754,6 +1949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1961,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1972,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1982,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1994,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,6 +2004,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1813,6 +2014,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +2026,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,6 +2036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1842,6 +2046,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,6 +2056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1861,6 +2067,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2084,19 +2291,19 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>product_source</t>
+  </si>
+  <si>
+    <t>choerodon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2107,42 +2314,45 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2150,187 +2360,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2350,28 +2415,45 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2402,194 +2484,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2690,254 +2586,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2946,11 +2600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2958,21 +2608,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2986,89 +2624,53 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3141,6 +2743,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3398,171 +3003,167 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -3574,95 +3175,95 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
-    <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
-    <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3676,7 +3277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:11">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3687,7 +3288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3319,11 @@
       <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="5:10">
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" customHeight="1">
       <c r="E8" t="s">
         <v>60</v>
       </c>
@@ -3738,28 +3342,34 @@
       <c r="J8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="5:10">
-      <c r="E9" s="9" t="s">
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1">
+      <c r="E9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="5:10">
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -3778,12 +3388,15 @@
       <c r="J10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="5:10">
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
       <c r="G11" t="s">
@@ -3798,8 +3411,11 @@
       <c r="J11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="16" customHeight="1" spans="5:10">
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="E12" s="5" t="s">
         <v>78</v>
       </c>
@@ -3818,8 +3434,11 @@
       <c r="J12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="5:10">
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="E13" t="s">
         <v>82</v>
       </c>
@@ -3838,8 +3457,11 @@
       <c r="J13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="5:10">
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="E14" t="s">
         <v>86</v>
       </c>
@@ -3858,32 +3480,34 @@
       <c r="J14" t="s">
         <v>65</v>
       </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="15.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="14.2814814814815" customWidth="1"/>
-    <col min="8" max="8" width="14.1407407407407" customWidth="1"/>
-    <col min="10" max="10" width="9.42222222222222" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3897,7 +3521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3955,7 +3579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
         <v>102</v>
@@ -3972,7 +3596,7 @@
       <c r="I8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>107</v>
       </c>
       <c r="K8" s="5"/>
@@ -3987,10 +3611,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:9">
+    <row r="9" spans="1:15">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4019,7 +3643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>115</v>
       </c>
@@ -4034,11 +3658,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>115</v>
       </c>
@@ -4053,11 +3677,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>115</v>
       </c>
@@ -4076,7 +3700,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -4095,7 +3719,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>115</v>
       </c>
@@ -4114,7 +3738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>115</v>
       </c>
@@ -4153,7 +3777,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>